--- a/ProjDoc/CAN_BNC_Mapping.xlsx
+++ b/ProjDoc/CAN_BNC_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asc\repo\UVR1611\ProjDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4E6218-3599-4834-9BFC-7DA977A69AD4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D183DEF-49E3-4D84-B201-1F752F777E61}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,7 +617,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -640,11 +640,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -653,9 +703,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -685,9 +732,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -699,6 +743,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -981,20 +1053,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="C57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="22.5703125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16" style="13" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="23"/>
+    <col min="3" max="3" width="22.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16" style="12" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="21"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="33.28515625" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
@@ -1007,274 +1079,277 @@
       <c r="B1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="20"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="21"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>1</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>1</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>2</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>3</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>4</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>5</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>6</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>7</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>8</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>9</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>10</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>11</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>12</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>13</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>14</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>15</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>16</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>16</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1283,277 +1358,295 @@
       <c r="B20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="21"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>1</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <v>1</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>1</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="H22" t="s">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>2</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="12">
         <v>1</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <v>2</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H23" t="s">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>3</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="12">
         <v>1</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="12">
         <v>3</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="H24" t="s">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>4</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="12">
         <v>1</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="12">
         <v>4</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="H25" t="s">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>5</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="12">
         <v>1</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="12">
         <v>5</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="H26" t="s">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>6</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="12">
         <v>1</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="12">
         <v>6</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="H27" t="s">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>7</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="12">
         <v>1</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="12">
         <v>7</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H28" t="s">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>8</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="12">
         <v>8</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H29" t="s">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>9</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="12">
         <v>9</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H30" t="s">
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>10</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="12">
         <v>10</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H31" t="s">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <v>11</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="12">
         <v>11</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="H32" t="s">
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>12</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="12">
         <v>12</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="H33" t="s">
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <v>13</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="12">
         <v>13</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="H34" t="s">
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <v>14</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="12">
         <v>14</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="H35" t="s">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <v>15</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="12">
         <v>15</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="H36" t="s">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <v>16</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="12">
         <v>16</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="H37" t="s">
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1562,26 +1655,28 @@
         <v>10</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="20"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
     </row>
     <row r="39" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="25" t="s">
+      <c r="E39" s="8"/>
+      <c r="F39" s="23" t="s">
         <v>152</v>
       </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
       <c r="I39" s="7" t="s">
         <v>136</v>
       </c>
@@ -1589,497 +1684,561 @@
     <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="I40" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="22">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C41" s="12">
+      <c r="C41" s="11">
         <v>1</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="12">
         <v>48</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="12">
         <v>1</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="H41" t="s">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I41" s="24" t="s">
+      <c r="I41" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="J41" s="24">
+      <c r="J41" s="22">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C42" s="12">
+      <c r="C42" s="11">
         <v>2</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <v>48</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="12">
         <v>2</v>
       </c>
-      <c r="F42" s="23" t="s">
+      <c r="F42" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="H42" t="s">
+      <c r="G42" s="1"/>
+      <c r="H42" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I42" s="24" t="s">
+      <c r="I42" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="J42" s="24">
+      <c r="J42" s="22">
         <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C43" s="12">
+      <c r="C43" s="11">
         <v>3</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="12">
         <v>48</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="12">
         <v>3</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="F43" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H43" t="s">
+      <c r="G43" s="1"/>
+      <c r="H43" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I43" s="24" t="s">
+      <c r="I43" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="J43" s="24">
+      <c r="J43" s="22">
         <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C44" s="12">
+      <c r="C44" s="11">
         <v>4</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="12">
         <v>48</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="12">
         <v>4</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="H44" t="s">
+      <c r="G44" s="1"/>
+      <c r="H44" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="J44" s="24">
+      <c r="J44" s="22">
         <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C45" s="12">
+      <c r="C45" s="11">
         <v>5</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="12">
         <v>48</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="12">
         <v>5</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H45" t="s">
+      <c r="G45" s="1"/>
+      <c r="H45" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <v>6</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="12">
         <v>48</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="12">
         <v>6</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H46" t="s">
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C47" s="12">
+      <c r="C47" s="11">
         <v>7</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="12">
         <v>48</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="12">
         <v>7</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H47" t="s">
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C48" s="12">
+      <c r="C48" s="11">
         <v>8</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="12">
         <v>48</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="12">
         <v>8</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="F48" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H48" t="s">
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="12">
+      <c r="C49" s="11">
         <v>9</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="12">
         <v>48</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="12">
         <v>9</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="F49" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H49" t="s">
+      <c r="G49" s="1"/>
+      <c r="H49" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="12">
+      <c r="C50" s="11">
         <v>10</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="12">
         <v>48</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="12">
         <v>10</v>
       </c>
-      <c r="F50" s="23" t="s">
+      <c r="F50" s="21" t="s">
         <v>47</v>
       </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="12">
+      <c r="C51" s="11">
         <v>11</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="12">
         <v>11</v>
       </c>
-      <c r="F51" s="23" t="s">
+      <c r="F51" s="21" t="s">
         <v>48</v>
       </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="12">
+      <c r="C52" s="11">
         <v>12</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="12">
         <v>12</v>
       </c>
-      <c r="F52" s="23" t="s">
+      <c r="F52" s="21" t="s">
         <v>49</v>
       </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C53" s="12">
+      <c r="C53" s="11">
         <v>13</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="12">
         <v>13</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="21" t="s">
         <v>50</v>
       </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="12">
+      <c r="C54" s="11">
         <v>14</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="12">
         <v>14</v>
       </c>
-      <c r="F54" s="23" t="s">
+      <c r="F54" s="21" t="s">
         <v>51</v>
       </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C55" s="12">
+      <c r="C55" s="11">
         <v>15</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="12">
         <v>15</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="F55" s="21" t="s">
         <v>52</v>
       </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C56" s="12">
+      <c r="C56" s="11">
         <v>16</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="12">
         <v>16</v>
       </c>
-      <c r="F56" s="23" t="s">
+      <c r="F56" s="21" t="s">
         <v>53</v>
       </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="25" t="s">
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="30" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="22" t="s">
+      <c r="F58" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C59" s="12">
+      <c r="C59" s="11">
         <v>1</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="12">
         <v>48</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="12">
         <v>1</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="12">
+      <c r="C60" s="11">
         <v>2</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="12">
         <v>48</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="12">
         <v>2</v>
       </c>
-      <c r="F60" s="23" t="s">
+      <c r="F60" s="21" t="s">
         <v>58</v>
       </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="12">
+      <c r="C61" s="11">
         <v>3</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="12">
         <v>48</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="12">
         <v>3</v>
       </c>
-      <c r="F61" s="23" t="s">
+      <c r="F61" s="21" t="s">
         <v>59</v>
       </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="12">
+      <c r="C62" s="11">
         <v>4</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="12">
         <v>48</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E62" s="12">
         <v>4</v>
       </c>
-      <c r="F62" s="23" t="s">
+      <c r="F62" s="21" t="s">
         <v>120</v>
       </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="12">
+      <c r="C63" s="11">
         <v>5</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="12">
         <v>48</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="12">
         <v>5</v>
       </c>
-      <c r="F63" s="23" t="s">
+      <c r="F63" s="21" t="s">
         <v>121</v>
       </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C64" s="12">
+      <c r="C64" s="11">
         <v>6</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="12">
         <v>48</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="12">
         <v>6</v>
       </c>
-      <c r="F64" s="23" t="s">
+      <c r="F64" s="21" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="12">
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C65" s="11">
         <v>7</v>
       </c>
-      <c r="F65" s="23" t="s">
+      <c r="F65" s="21" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="12">
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C66" s="11">
         <v>8</v>
       </c>
-      <c r="F66" s="23" t="s">
+      <c r="F66" s="21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="12">
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C67" s="11">
         <v>9</v>
       </c>
-      <c r="F67" s="23" t="s">
+      <c r="F67" s="21" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="12">
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C68" s="11">
         <v>10</v>
       </c>
-      <c r="F68" s="23" t="s">
+      <c r="F68" s="21" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="12">
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C69" s="11">
         <v>11</v>
       </c>
-      <c r="F69" s="23" t="s">
+      <c r="F69" s="21" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C70" s="12">
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C70" s="11">
         <v>12</v>
       </c>
-      <c r="F70" s="23" t="s">
+      <c r="F70" s="21" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C71" s="12">
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C71" s="11">
         <v>13</v>
       </c>
-      <c r="F71" s="23" t="s">
+      <c r="F71" s="21" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C72" s="12">
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C72" s="11">
         <v>14</v>
       </c>
-      <c r="F72" s="23" t="s">
+      <c r="F72" s="21" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="12">
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C73" s="11">
         <v>15</v>
       </c>
-      <c r="F73" s="23" t="s">
+      <c r="F73" s="21" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C74" s="12">
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C74" s="11">
         <v>16</v>
       </c>
-      <c r="F74" s="23" t="s">
+      <c r="F74" s="21" t="s">
         <v>151</v>
       </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C75" s="31"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="19" max="16383" man="1"/>
+    <brk id="38" max="16383" man="1"/>
+    <brk id="56" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -2093,254 +2252,254 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="14" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14" style="14" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>9</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>3</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>8</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>16</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>7</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>11</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>5</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>13</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>4</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>14</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ProjDoc/CAN_BNC_Mapping.xlsx
+++ b/ProjDoc/CAN_BNC_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asc\repo\UVR1611\ProjDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D183DEF-49E3-4D84-B201-1F752F777E61}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B586840-3AAC-4758-9D1C-DE19CA0870D8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1053,6 +1053,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
@@ -2233,7 +2236,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="19" max="16383" man="1"/>
     <brk id="38" max="16383" man="1"/>
